--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Shh-Ptch2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Shh-Ptch2.xlsx
@@ -537,16 +537,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.02531733333333333</v>
+        <v>0.08785</v>
       </c>
       <c r="H2">
-        <v>0.07595199999999999</v>
+        <v>0.26355</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.277057</v>
+        <v>2.931802</v>
       </c>
       <c r="N2">
-        <v>3.831171</v>
+        <v>8.795406</v>
       </c>
       <c r="O2">
-        <v>0.1230102392543504</v>
+        <v>0.2031783997257507</v>
       </c>
       <c r="P2">
-        <v>0.1230102392543504</v>
+        <v>0.2031783997257507</v>
       </c>
       <c r="Q2">
-        <v>0.03233167775466666</v>
+        <v>0.2575588056999999</v>
       </c>
       <c r="R2">
-        <v>0.2909850997919999</v>
+        <v>2.3180292513</v>
       </c>
       <c r="S2">
-        <v>0.1230102392543504</v>
+        <v>0.2031783997257507</v>
       </c>
       <c r="T2">
-        <v>0.1230102392543504</v>
+        <v>0.2031783997257507</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.02531733333333333</v>
+        <v>0.08785</v>
       </c>
       <c r="H3">
-        <v>0.07595199999999999</v>
+        <v>0.26355</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>4.523874</v>
       </c>
       <c r="O3">
-        <v>0.1452513665134068</v>
+        <v>0.1045038148188874</v>
       </c>
       <c r="P3">
-        <v>0.1452513665134068</v>
+        <v>0.1045038148188874</v>
       </c>
       <c r="Q3">
-        <v>0.03817747533866667</v>
+        <v>0.1324741103</v>
       </c>
       <c r="R3">
-        <v>0.343597278048</v>
+        <v>1.1922669927</v>
       </c>
       <c r="S3">
-        <v>0.1452513665134068</v>
+        <v>0.1045038148188874</v>
       </c>
       <c r="T3">
-        <v>0.1452513665134068</v>
+        <v>0.1045038148188874</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.02531733333333333</v>
+        <v>0.08785</v>
       </c>
       <c r="H4">
-        <v>0.07595199999999999</v>
+        <v>0.26355</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,34 +679,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.9821499999999999</v>
+        <v>0.3072716666666667</v>
       </c>
       <c r="N4">
-        <v>2.94645</v>
+        <v>0.9218150000000001</v>
       </c>
       <c r="O4">
-        <v>0.09460384813180638</v>
+        <v>0.02129440034299643</v>
       </c>
       <c r="P4">
-        <v>0.09460384813180636</v>
+        <v>0.02129440034299643</v>
       </c>
       <c r="Q4">
-        <v>0.02486541893333333</v>
+        <v>0.02699381591666667</v>
       </c>
       <c r="R4">
-        <v>0.2237887703999999</v>
+        <v>0.24294434325</v>
       </c>
       <c r="S4">
-        <v>0.09460384813180638</v>
+        <v>0.02129440034299643</v>
       </c>
       <c r="T4">
-        <v>0.09460384813180636</v>
+        <v>0.02129440034299643</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.02531733333333333</v>
+        <v>0.08785</v>
       </c>
       <c r="H5">
-        <v>0.07595199999999999</v>
+        <v>0.26355</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9484723333333335</v>
+        <v>0.7995056666666667</v>
       </c>
       <c r="N5">
-        <v>2.845417</v>
+        <v>2.398517</v>
       </c>
       <c r="O5">
-        <v>0.09135990691837981</v>
+        <v>0.05540697561602141</v>
       </c>
       <c r="P5">
-        <v>0.09135990691837979</v>
+        <v>0.05540697561602141</v>
       </c>
       <c r="Q5">
-        <v>0.02401279022044445</v>
+        <v>0.07023657281666666</v>
       </c>
       <c r="R5">
-        <v>0.216115111984</v>
+        <v>0.63212915535</v>
       </c>
       <c r="S5">
-        <v>0.09135990691837981</v>
+        <v>0.05540697561602141</v>
       </c>
       <c r="T5">
-        <v>0.09135990691837979</v>
+        <v>0.05540697561602141</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.02531733333333333</v>
+        <v>0.08785</v>
       </c>
       <c r="H6">
-        <v>0.07595199999999999</v>
+        <v>0.26355</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.427111</v>
+        <v>8.335887</v>
       </c>
       <c r="N6">
-        <v>13.281333</v>
+        <v>25.007661</v>
       </c>
       <c r="O6">
-        <v>0.4264335760389447</v>
+        <v>0.5776898238539604</v>
       </c>
       <c r="P6">
-        <v>0.4264335760389446</v>
+        <v>0.5776898238539604</v>
       </c>
       <c r="Q6">
-        <v>0.1120826448906667</v>
+        <v>0.73230767295</v>
       </c>
       <c r="R6">
-        <v>1.008743804016</v>
+        <v>6.59076905655</v>
       </c>
       <c r="S6">
-        <v>0.4264335760389447</v>
+        <v>0.5776898238539604</v>
       </c>
       <c r="T6">
-        <v>0.4264335760389446</v>
+        <v>0.5776898238539604</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.02531733333333333</v>
+        <v>0.08785</v>
       </c>
       <c r="H7">
-        <v>0.07595199999999999</v>
+        <v>0.26355</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.238964666666667</v>
+        <v>0.547269</v>
       </c>
       <c r="N7">
-        <v>3.716894</v>
+        <v>1.641807</v>
       </c>
       <c r="O7">
-        <v>0.119341063143112</v>
+        <v>0.03792658564238371</v>
       </c>
       <c r="P7">
-        <v>0.119341063143112</v>
+        <v>0.03792658564238371</v>
       </c>
       <c r="Q7">
-        <v>0.03136728145422222</v>
+        <v>0.04807758165</v>
       </c>
       <c r="R7">
-        <v>0.2823055330879999</v>
+        <v>0.43269823485</v>
       </c>
       <c r="S7">
-        <v>0.119341063143112</v>
+        <v>0.03792658564238371</v>
       </c>
       <c r="T7">
-        <v>0.119341063143112</v>
+        <v>0.03792658564238371</v>
       </c>
     </row>
   </sheetData>
